--- a/09_MPEC_Bidding_Diagonalization/MatlabCode/Test Data 2/Strategic DA Quantity Offers.xlsx
+++ b/09_MPEC_Bidding_Diagonalization/MatlabCode/Test Data 2/Strategic DA Quantity Offers.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PyomoModels\09_MPEC_Bidding_Diagonalization\MatlabCode\Test Data 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD76C16-5D8E-4585-A555-CDA49E3DD3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Offers" sheetId="3" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>t=1</t>
   </si>
@@ -93,12 +99,30 @@
   </si>
   <si>
     <t>SDA 2</t>
+  </si>
+  <si>
+    <t>SDA 3</t>
+  </si>
+  <si>
+    <t>SDA 4</t>
+  </si>
+  <si>
+    <t>SDA 5</t>
+  </si>
+  <si>
+    <t>SDA 6</t>
+  </si>
+  <si>
+    <t>SDA 8</t>
+  </si>
+  <si>
+    <t>SDA 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,7 +224,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,9 +257,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,6 +309,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -443,11 +501,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,22 +739,34 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
@@ -707,11 +777,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,22 +1015,34 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
